--- a/gbif-ipt-docs/downloads/occurrence_ipt_template_v2_example_data.xlsx
+++ b/gbif-ipt-docs/downloads/occurrence_ipt_template_v2_example_data.xlsx
@@ -865,7 +865,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="248">
   <si>
     <t>type</t>
   </si>
@@ -1655,6 +1655,12 @@
       </rPr>
       <t>. Enter lists using the pipe (“|”) character as a separator, for applicable DwC terms only.</t>
     </r>
+  </si>
+  <si>
+    <t>This dataset has been indexed by GBIF. To see how GBIF indexes the data go here:</t>
+  </si>
+  <si>
+    <t>http://www.gbif.org/dataset/a8ee9bc6-5914-427d-9fba-f8545250ac34</t>
   </si>
 </sst>
 </file>
@@ -1914,7 +1920,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="174">
+  <cellStyleXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2039,6 +2045,8 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2162,7 +2170,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="174">
+  <cellStyles count="176">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -2273,6 +2281,8 @@
     <cellStyle name="Followed Hyperlink" xfId="171" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="173" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="175" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -4560,7 +4570,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4612,69 +4622,85 @@
       <c r="A8" s="13"/>
       <c r="B8" s="27"/>
     </row>
-    <row r="9" spans="1:2" ht="16" customHeight="1">
+    <row r="9" spans="1:2">
       <c r="A9" s="13"/>
-      <c r="B9" s="28" t="s">
-        <v>240</v>
+      <c r="B9" s="16" t="s">
+        <v>246</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28">
+    <row r="10" spans="1:2">
       <c r="A10" s="13"/>
-      <c r="B10" s="17" t="s">
-        <v>239</v>
+      <c r="B10" s="27" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="13"/>
-      <c r="B11" s="17"/>
+      <c r="B11" s="27"/>
     </row>
-    <row r="12" spans="1:2" ht="16" thickBot="1">
-      <c r="A12" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>232</v>
+    <row r="12" spans="1:2" ht="16" customHeight="1">
+      <c r="A12" s="13"/>
+      <c r="B12" s="28" t="s">
+        <v>240</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="30">
-      <c r="A13" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>234</v>
+    <row r="13" spans="1:2" ht="28">
+      <c r="A13" s="13"/>
+      <c r="B13" s="17" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="22"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="17"/>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="23"/>
-      <c r="B15" s="24" t="s">
-        <v>235</v>
+    <row r="15" spans="1:2" ht="16" thickBot="1">
+      <c r="A15" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="30">
-      <c r="A16" s="25"/>
-      <c r="B16" s="26" t="s">
+      <c r="A16" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="22"/>
+      <c r="B17" s="21"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="23"/>
+      <c r="B18" s="24" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30">
+      <c r="A19" s="25"/>
+      <c r="B19" s="26" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30">
-      <c r="A17" s="25"/>
-      <c r="B17" s="24" t="s">
+    <row r="20" spans="1:2" ht="30">
+      <c r="A20" s="25"/>
+      <c r="B20" s="24" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30">
-      <c r="A18" s="25"/>
-      <c r="B18" s="24" t="s">
+    <row r="21" spans="1:2" ht="30">
+      <c r="A21" s="25"/>
+      <c r="B21" s="24" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="25"/>
-      <c r="B19" s="29" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="25"/>
+      <c r="B22" s="29" t="s">
         <v>245</v>
       </c>
     </row>
